--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/3.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/3.xlsx
@@ -479,13 +479,13 @@
         <v>-17.66706971401729</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.847794066580411</v>
+        <v>-8.738394784034949</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.913485234419761</v>
+        <v>-2.935585041616595</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.378019598254801</v>
+        <v>-5.341439704115019</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.41266482306348</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.117037274520507</v>
+        <v>-8.99781876484375</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.962961046858644</v>
+        <v>-3.000261017654721</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.302280626315416</v>
+        <v>-5.261786133625957</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.18222401394747</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.940425292539501</v>
+        <v>-9.821062767531485</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.835821693962642</v>
+        <v>-2.876028155989583</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.168346368244558</v>
+        <v>-5.127969706280675</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.98631433996151</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.71192851439674</v>
+        <v>-10.59890266396411</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.763421259247897</v>
+        <v>-2.798796661526241</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.389972870749297</v>
+        <v>-5.353550084243615</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.79846357171547</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.50055646837095</v>
+        <v>-11.38191402001923</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.612676484328263</v>
+        <v>-2.645930933546247</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.939375083845611</v>
+        <v>-4.903816389327483</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.59709605462857</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.18228576964247</v>
+        <v>-12.06207224494974</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.599021212464343</v>
+        <v>-2.629591739599773</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.046326105759671</v>
+        <v>-5.019225038877298</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.35548159046496</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.70144794652827</v>
+        <v>-12.57432168593511</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.474827627707729</v>
+        <v>-2.505136308786325</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.597404133619726</v>
+        <v>-4.579454586423719</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.05347197822071</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.66106137561542</v>
+        <v>-13.53367326896543</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.213348155352776</v>
+        <v>-2.246445496936659</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.500521092590954</v>
+        <v>-4.492024188046673</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-15.68334035250156</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.41702403399953</v>
+        <v>-14.28679489763288</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.193932270238496</v>
+        <v>-2.217642430684862</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.091124782730179</v>
+        <v>-4.087616045568597</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.25858010750407</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.08974583091594</v>
+        <v>-14.96611521518152</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.031273499732892</v>
+        <v>-2.053752983712135</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.881621752656879</v>
+        <v>-3.878414138460656</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.81393302273407</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.73502616107609</v>
+        <v>-15.61138245303883</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.046460571029294</v>
+        <v>-2.061137042514869</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.373993894574634</v>
+        <v>-3.371637280063123</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.39225045025021</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.6968521893435</v>
+        <v>-16.56963428263045</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.859803609414805</v>
+        <v>-1.879402786768869</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.732431778421531</v>
+        <v>-2.72961693331056</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-14.0327004850442</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.31775465161236</v>
+        <v>-17.20262094042222</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.604765550057981</v>
+        <v>-1.625163357885391</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.356303010081583</v>
+        <v>-2.351249381184677</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-13.75505592360171</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.21493088844732</v>
+        <v>-18.09891999296678</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.458472158104534</v>
+        <v>-1.470242138359246</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.791998572997506</v>
+        <v>-1.778304024225061</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-13.55757033944469</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.10883404957185</v>
+        <v>-18.99486555333462</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.301155047158354</v>
+        <v>-1.313160688864217</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.380481310076372</v>
+        <v>-1.381620340423602</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-13.41983983376242</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.90110166373606</v>
+        <v>-19.78138564655132</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.067994225850054</v>
+        <v>-1.07289074711286</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.8632960709196673</v>
+        <v>-0.8653908393743435</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.31052991062323</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.85799189383214</v>
+        <v>-20.74389247456649</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9834703187038709</v>
+        <v>-0.9803805352332235</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4970388989223805</v>
+        <v>-0.4960831608149345</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.1949212920484</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.69359503040246</v>
+        <v>-21.57776742716171</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8310104521119708</v>
+        <v>-0.8238620547603884</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1234762219394106</v>
+        <v>-0.128909527618727</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.04143363627805</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.33251250138153</v>
+        <v>-22.21660634432373</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.579507314522413</v>
+        <v>-0.5717304866344277</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2545247457069044</v>
+        <v>0.2568289910070482</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-12.82696773685674</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.95875662320982</v>
+        <v>-22.84664723397612</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.2803089176804472</v>
+        <v>-0.2713668748395483</v>
       </c>
       <c r="G21" t="n">
-        <v>0.59149443624725</v>
+        <v>0.588339191262394</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-12.53819139480557</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.59716349437807</v>
+        <v>-23.48153227567994</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0508924949848813</v>
+        <v>-0.0284391956113211</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5974776186459188</v>
+        <v>0.5812038862136533</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-12.17845117039733</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.07999453087808</v>
+        <v>-23.9751382774187</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04917197563443104</v>
+        <v>0.07684910384183995</v>
       </c>
       <c r="G23" t="n">
-        <v>0.866066211443929</v>
+        <v>0.8490462177496851</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-11.76664700618892</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.44752165625101</v>
+        <v>-24.33935305017267</v>
       </c>
       <c r="F24" t="n">
-        <v>0.02755658364274129</v>
+        <v>0.05027172907313602</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8067449872680682</v>
+        <v>0.786779225434436</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-11.33295848291241</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.73218759693867</v>
+        <v>-24.62471288291093</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3139245236998156</v>
+        <v>0.3351209620005701</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7802068894078895</v>
+        <v>0.7638807877642571</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.91124228681953</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.73992514791813</v>
+        <v>-24.63623410941165</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3265455036392395</v>
+        <v>0.3462494194160373</v>
       </c>
       <c r="G26" t="n">
-        <v>0.6424365866044061</v>
+        <v>0.6205593485558818</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.52961793874512</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.68136327730708</v>
+        <v>-24.57640228542497</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1373617275762978</v>
+        <v>0.162970271934714</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6142095816776447</v>
+        <v>0.5894389447010989</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.20599933673357</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.78682177669719</v>
+        <v>-24.69147053510089</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2767816605378387</v>
+        <v>0.2957000381441329</v>
       </c>
       <c r="G28" t="n">
-        <v>0.3129556932895279</v>
+        <v>0.2881195947987735</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.948420314767395</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.82122834856524</v>
+        <v>-24.71913457100546</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2532809769369405</v>
+        <v>0.2685989712617599</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2002178735194247</v>
+        <v>0.1732739142711524</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.757381335588748</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.6159803169155</v>
+        <v>-24.51664901525533</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1009127564649325</v>
+        <v>0.1190848728092482</v>
       </c>
       <c r="G30" t="n">
-        <v>0.007839575563101836</v>
+        <v>-0.02375215119398317</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.627523230078586</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.14261501537005</v>
+        <v>-24.03906799219484</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1081920768449322</v>
+        <v>0.12387665564932</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.486787625797309</v>
+        <v>-0.5092932943822361</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.548937111535613</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.19305965821923</v>
+        <v>-24.0941211256443</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1589509349623041</v>
+        <v>0.174491498435433</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.5978889077121965</v>
+        <v>-0.6150921936462245</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.510166489496051</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.79730552791953</v>
+        <v>-23.69223979761468</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09012469892335018</v>
+        <v>0.1036359554560115</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.093772970145413</v>
+        <v>-1.102230597781168</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.498490974381424</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.22083834149549</v>
+        <v>-23.12633809958391</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04688625031531313</v>
+        <v>-0.04305020558268739</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.173426540634474</v>
+        <v>-1.184201505873215</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.498312655981319</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.85905873707007</v>
+        <v>-22.7703976622259</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2451168076418875</v>
+        <v>-0.2401679171677151</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.225599367458753</v>
+        <v>-1.222758337742098</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.4919663446897</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.13559117433913</v>
+        <v>-22.05561029627903</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.3624500257094366</v>
+        <v>-0.357553504446631</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.430127322452197</v>
+        <v>-1.438362380939643</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.464532215207459</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.34001120755596</v>
+        <v>-21.25496360829611</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2988999877156982</v>
+        <v>-0.2945533431722452</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.546832109983344</v>
+        <v>-1.555839614338451</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-9.40657926953949</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.96727334565202</v>
+        <v>-20.8850274992003</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.3777418354285726</v>
+        <v>-0.3674774700006594</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.80173924631175</v>
+        <v>-1.811519196534519</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-9.31439720863097</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.31134897328155</v>
+        <v>-20.23030761869126</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.218185940696457</v>
+        <v>-0.2065599757730043</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.959868080034117</v>
+        <v>-1.967356877259585</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-9.190534340955248</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.97790111220563</v>
+        <v>-19.90861664556721</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.4892227941258701</v>
+        <v>-0.482152950591338</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.179255798752922</v>
+        <v>-2.187922903234144</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-9.039842015128793</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.45115849197446</v>
+        <v>-19.38783102312903</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2048710687064216</v>
+        <v>-0.1975262868122133</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.029362023517999</v>
+        <v>-2.029702423391885</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.868074949188383</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.86758218510736</v>
+        <v>-18.80065433298046</v>
       </c>
       <c r="F42" t="n">
-        <v>0.03024050572529514</v>
+        <v>0.04206285519137378</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.05227355349102</v>
+        <v>-2.031482976578359</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.680357494135855</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.97607491540287</v>
+        <v>-17.90415889589327</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0420235782828486</v>
+        <v>0.0466975303973448</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.94896219176696</v>
+        <v>-1.916611111445055</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.481491738739031</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.63005844359889</v>
+        <v>-17.56275091468958</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07229298245291926</v>
+        <v>0.07834162636579671</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.140594228461304</v>
+        <v>-2.109395270789471</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.276025045402958</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.0896605515038</v>
+        <v>-17.02734118997719</v>
       </c>
       <c r="F45" t="n">
-        <v>0.04288767027040252</v>
+        <v>0.04684154572860379</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.196603100018208</v>
+        <v>-2.160651636414828</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.069602574297756</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.67725301198944</v>
+        <v>-16.63188818264285</v>
       </c>
       <c r="F46" t="n">
-        <v>0.08321196302291881</v>
+        <v>0.08237405564104834</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.130329863033391</v>
+        <v>-2.105768702902313</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.8699351837478</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.04853444492407</v>
+        <v>-16.00001437059263</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09935477242676705</v>
+        <v>0.09347632845083205</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.446260222907083</v>
+        <v>-2.406878575959171</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.68434291057853</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.38962502750567</v>
+        <v>-15.34543850541485</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08802993046867401</v>
+        <v>0.08092081002561675</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.373375372987194</v>
+        <v>-2.337515555503706</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.519763973584816</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.84196090733343</v>
+        <v>-14.80305058328782</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2166356212829492</v>
+        <v>0.2143051913771219</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.585182648360638</v>
+        <v>-2.542541018005136</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.380848011512141</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.16727526499076</v>
+        <v>-14.13298652384828</v>
       </c>
       <c r="F50" t="n">
-        <v>0.363465797652907</v>
+        <v>0.3670399963286983</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.543509848415424</v>
+        <v>-2.481818917425211</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.272501903905019</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.3769060347386</v>
+        <v>-13.35269836678425</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3520100326663967</v>
+        <v>0.3513423252214687</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.614483222120421</v>
+        <v>-2.550186922864704</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.197510820228955</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.76714512218805</v>
+        <v>-12.74821365227892</v>
       </c>
       <c r="F52" t="n">
-        <v>0.4367434166580478</v>
+        <v>0.4396630001917528</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.615740083193227</v>
+        <v>-2.55592135150938</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.157200210356142</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.13804687834027</v>
+        <v>-12.11839533177484</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4906182428517506</v>
+        <v>0.4911681195711031</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.650932193231786</v>
+        <v>-2.584226910253192</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.151957637279014</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.75473043574022</v>
+        <v>-11.73299721302295</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3882102500237693</v>
+        <v>0.3874508964589492</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.755840815902537</v>
+        <v>-2.686831287623799</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-7.180941367576288</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.28393122555175</v>
+        <v>-11.27602347463534</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1304751762815499</v>
+        <v>0.1277912541989961</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.241617620541942</v>
+        <v>-3.162212803806873</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.24240320363127</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.87262343947608</v>
+        <v>-10.86098438224979</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2145932220396399</v>
+        <v>0.216884375036942</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.318927668822334</v>
+        <v>-3.233421838963021</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.332668723721283</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.10761399982834</v>
+        <v>-10.09829228020503</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1717944840500374</v>
+        <v>0.1754210519371955</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.677591305171419</v>
+        <v>-3.583392186225201</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.449162348476504</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.807224203427781</v>
+        <v>-9.796920561091342</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.004179158445602695</v>
+        <v>-0.004912327404739355</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.701419296343361</v>
+        <v>-3.619003249954695</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.589960745389327</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.234946553913092</v>
+        <v>-9.234658523250575</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07720259601856655</v>
+        <v>0.0860660850424151</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.984501068387162</v>
+        <v>-3.896717177833389</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.756537163629005</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.899875247284797</v>
+        <v>-8.898016140281271</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.05611632381873001</v>
+        <v>-0.05248975593157189</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.906326928119216</v>
+        <v>-3.822902774411737</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.950301202741304</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.36280280011151</v>
+        <v>-8.366547198724245</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.08019306874466425</v>
+        <v>-0.07530963978470043</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.311311131922328</v>
+        <v>-4.223252303008879</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.171091458048462</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.877968641276711</v>
+        <v>-7.876593949478329</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.0372765000294862</v>
+        <v>-0.02771911895502617</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.276249944912186</v>
+        <v>-4.187903085336218</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.416469745462352</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.404721170456838</v>
+        <v>-7.391445575375328</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.05988690703714711</v>
+        <v>-0.05906209195811837</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.274181361063193</v>
+        <v>-4.189146854106182</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.68172273496652</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.072294509002572</v>
+        <v>-7.06462241953732</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.2278742447993343</v>
+        <v>-0.2260151377958092</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.494537910192284</v>
+        <v>-4.422504059957108</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.958959346303656</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.689043527916724</v>
+        <v>-6.676461824885826</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.1804408316037608</v>
+        <v>-0.1799695087014586</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.765653317438748</v>
+        <v>-4.696539050737276</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.237532613610885</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.438129543955045</v>
+        <v>-6.425233625655944</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.2857815002682887</v>
+        <v>-0.289447345063972</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.745203140399972</v>
+        <v>-4.678785888083896</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.508170610116041</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.288641630108216</v>
+        <v>-6.27676691143077</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.3516226912593291</v>
+        <v>-0.3498814149813795</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.838800013415471</v>
+        <v>-4.775092867787633</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.762289017139103</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.01393893188312</v>
+        <v>-6.002797382164811</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3128563825449782</v>
+        <v>-0.3171375655742226</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.851263885720795</v>
+        <v>-4.789664600850474</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.993356963494932</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.875605660057442</v>
+        <v>-5.863259618477694</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.5659044118698596</v>
+        <v>-0.5646606430998957</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.928168072613094</v>
+        <v>-4.873638631277305</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-10.19667690178892</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.672740427524896</v>
+        <v>-5.648886251747272</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5187590293368041</v>
+        <v>-0.5186150140055451</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.771217546146481</v>
+        <v>-4.721689364496232</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-10.37055378086317</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.55473950201242</v>
+        <v>-5.526944543079435</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.5932673248090672</v>
+        <v>-0.5984125998258655</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.736483666707382</v>
+        <v>-4.689299007265801</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-10.51654483747884</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.562922191288498</v>
+        <v>-5.527572973615838</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7049577603518322</v>
+        <v>-0.7050363141688826</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.620590601952423</v>
+        <v>-4.586904106740662</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.63792336708498</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.610277050667022</v>
+        <v>-5.567268835831952</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.7379896404215071</v>
+        <v>-0.745111853167406</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.416311400712972</v>
+        <v>-4.384588750927469</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.73796548987454</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.851633653554241</v>
+        <v>-5.810550007236905</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.6298995881602166</v>
+        <v>-0.6397057229886695</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.286998725545243</v>
+        <v>-4.261612750335136</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.81880269028178</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.063506390441895</v>
+        <v>-6.020707652452292</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.9680214013506341</v>
+        <v>-0.9709671694900225</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.116589311757337</v>
+        <v>-4.085167784937194</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.88149242150978</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.561157913758744</v>
+        <v>-6.529566187001659</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8937487673295221</v>
+        <v>-0.8965374278348098</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.949426789074178</v>
+        <v>-3.924590690583424</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.92579368167369</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.018223298266243</v>
+        <v>-6.985911494852863</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.9534234836821095</v>
+        <v>-0.9578355897397712</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.873229586535332</v>
+        <v>-3.848930272461089</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.95036535623522</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.595528392072154</v>
+        <v>-7.556748991054961</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.011370016059589</v>
+        <v>-1.020469166534589</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.498959925198909</v>
+        <v>-3.467813336738442</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-10.95221565090439</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.017899174049079</v>
+        <v>-7.976566773977749</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.9739260299322525</v>
+        <v>-0.9863375330262089</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.303583489891831</v>
+        <v>-3.264188750641077</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-10.92769667591263</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.49151322934852</v>
+        <v>-8.452026843977874</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.180457107260481</v>
+        <v>-1.184960859438035</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.929902982183286</v>
+        <v>-2.89231498072469</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-10.87391613429516</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.411155857859884</v>
+        <v>-9.386345943974813</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.099572860304298</v>
+        <v>-1.107035472924081</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.921811939027099</v>
+        <v>-2.879261954791489</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.79059608478861</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.21044094634726</v>
+        <v>-10.19196770703758</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.191742672310049</v>
+        <v>-1.199048177295732</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.731541501828294</v>
+        <v>-2.691505239738295</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.67968087560432</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.03655216335733</v>
+        <v>-11.02559390587881</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.295682464570513</v>
+        <v>-1.297868879145081</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.369735712797194</v>
+        <v>-2.329817281432771</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.54515889118097</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24029776353415</v>
+        <v>-12.23390871974739</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.378910233735365</v>
+        <v>-1.383374709004394</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.238550838323099</v>
+        <v>-2.205636788978999</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.39226982857932</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.11589788528595</v>
+        <v>-13.10910298011109</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.467309462522699</v>
+        <v>-1.474876813565217</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.901214563303185</v>
+        <v>-1.864726315283294</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.22801136979013</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.29554055593115</v>
+        <v>-14.30079056937068</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.652958316818375</v>
+        <v>-1.66497705082708</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.652657193853015</v>
+        <v>-1.618852867915679</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.05954998052388</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.37611377097301</v>
+        <v>-15.38776592050215</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.704541990014776</v>
+        <v>-1.716888031594523</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.2415850692285</v>
+        <v>-1.205816897864905</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-9.894287086720238</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.75877878178486</v>
+        <v>-16.77342906866475</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.696660423704057</v>
+        <v>-1.716966585411574</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9205487112465354</v>
+        <v>-0.8897032457514288</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.737882032972525</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.42859727082429</v>
+        <v>-18.45715158332209</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.937846826654334</v>
+        <v>-1.95821844987606</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7199877240141338</v>
+        <v>-0.6817189228077685</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.593850439980894</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.01822540495814</v>
+        <v>-20.05683460603839</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.147991379566879</v>
+        <v>-2.172434708972382</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4167830825025997</v>
+        <v>-0.3801770037571336</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.46414006998107</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.83905051497404</v>
+        <v>-21.88455935965188</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.339924539226584</v>
+        <v>-2.369473866740359</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.5593582604489966</v>
+        <v>-0.5277927182975951</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.349942036869997</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.53654613222087</v>
+        <v>-23.59150761955044</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.431544474512983</v>
+        <v>-2.461957894014312</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.3768515588353352</v>
+        <v>-0.348663830817099</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.253246940357089</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.609149318186</v>
+        <v>-25.66024857617726</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.607256270951788</v>
+        <v>-2.644477687930816</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.374521128929508</v>
+        <v>-0.3510859068428183</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.175811607123659</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.83951475339393</v>
+        <v>-27.90233162242853</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.481439240642801</v>
+        <v>-2.519027242101396</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.4998930209418768</v>
+        <v>-0.480765166490115</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.121115380289078</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.12541773725646</v>
+        <v>-30.19289546610272</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.966312676386126</v>
+        <v>-3.011991721000908</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.8596171338211422</v>
+        <v>-0.8480173535033729</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.090661843154159</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.31083729680874</v>
+        <v>-32.37327448906093</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.034641404917094</v>
+        <v>-3.07936471142443</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.103225612797139</v>
+        <v>-1.08418940446527</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.083999681380513</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.53237851990134</v>
+        <v>-34.59769601877872</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.393553795020173</v>
+        <v>-3.451317035157868</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.310804074352706</v>
+        <v>-1.306103937632526</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.096159285732151</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.05066987920451</v>
+        <v>-37.11894623852412</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.66265298762901</v>
+        <v>-3.721175581331526</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.723512736832437</v>
+        <v>-1.718053246547437</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.116574694636656</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.57845315806793</v>
+        <v>-39.65393028395048</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.596039350770308</v>
+        <v>-3.646379255196745</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.186338734590295</v>
+        <v>-2.191916055600871</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.131968747050946</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.14581446842189</v>
+        <v>-42.22607028484167</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.771214362792603</v>
+        <v>-3.822117236241234</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.532499221725532</v>
+        <v>-2.541572187594848</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.127744274031754</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.42949176080133</v>
+        <v>-44.50106738043704</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.030533605178671</v>
+        <v>-4.087000707335036</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.11091716127299</v>
+        <v>-3.133121706892557</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-9.095275895132671</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.77152144694634</v>
+        <v>-46.83981089856878</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.181775887606291</v>
+        <v>-4.242262326735065</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.429138674143984</v>
+        <v>-3.438669870612761</v>
       </c>
     </row>
   </sheetData>
